--- a/Team-Data/2011-12/3-16-2011-12.xlsx
+++ b/Team-Data/2011-12/3-16-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,94 +733,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J2" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R2" t="n">
         <v>10.3</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -762,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -771,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -780,28 +847,28 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -810,13 +877,13 @@
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.535</v>
+        <v>0.548</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O3" t="n">
         <v>15.6</v>
@@ -887,22 +954,22 @@
         <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T3" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
@@ -914,31 +981,31 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1141,28 +1208,28 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP4" t="n">
         <v>20</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.783</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1230,34 +1297,34 @@
         <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R5" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S5" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
         <v>46</v>
@@ -1266,10 +1333,10 @@
         <v>23.4</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
@@ -1278,16 +1345,16 @@
         <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1326,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,16 +1411,16 @@
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1493,22 +1560,22 @@
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1523,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1544,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1675,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1684,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
@@ -1726,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1836,37 +1903,37 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J9" t="n">
         <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="O9" t="n">
         <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2006,19 +2073,19 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2039,25 +2106,25 @@
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR9" t="n">
         <v>10</v>
@@ -2066,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2087,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -2122,73 +2189,73 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J10" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
         <v>20.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
         <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.763</v>
+        <v>0.759</v>
       </c>
       <c r="R10" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S10" t="n">
         <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U10" t="n">
         <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
         <v>17.7</v>
@@ -2197,19 +2264,19 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2230,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>27</v>
@@ -2239,13 +2306,13 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
         <v>27</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2254,19 +2321,19 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2275,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2403,13 +2470,13 @@
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
@@ -2430,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2442,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -2486,121 +2553,121 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.595</v>
+        <v>0.61</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L12" t="n">
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>21.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2612,25 +2679,25 @@
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2809,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.628</v>
       </c>
       <c r="H14" t="n">
         <v>48.7</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.309</v>
+        <v>0.304</v>
       </c>
       <c r="O14" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R14" t="n">
         <v>11.5</v>
@@ -2910,10 +2977,10 @@
         <v>6.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
         <v>17.8</v>
@@ -2922,13 +2989,13 @@
         <v>20.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC14" t="n">
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2967,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>13</v>
@@ -2982,28 +3049,28 @@
         <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
         <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -3032,19 +3099,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.571</v>
+        <v>0.585</v>
       </c>
       <c r="H15" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I15" t="n">
         <v>36.9</v>
@@ -3059,61 +3126,61 @@
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
         <v>29.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>19.8</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
         <v>10.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,16 +3189,16 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,52 +3207,52 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -3214,49 +3281,49 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.744</v>
+        <v>0.738</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.483</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
         <v>32</v>
@@ -3265,7 +3332,7 @@
         <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
         <v>15.1</v>
@@ -3280,25 +3347,25 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3319,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
         <v>2</v>
@@ -3343,28 +3410,28 @@
         <v>14</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
         <v>21.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA17" t="n">
         <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3483,7 +3550,7 @@
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>27</v>
@@ -3492,10 +3559,10 @@
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3504,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3522,34 +3589,34 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
       </c>
       <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA17" t="n">
         <v>18</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="BB17" t="n">
         <v>13</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>12</v>
-      </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,43 +3663,43 @@
         <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P18" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T18" t="n">
-        <v>44.5</v>
+        <v>44.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3641,31 +3708,31 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>24</v>
@@ -3674,34 +3741,34 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,10 +3777,10 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3725,13 +3792,13 @@
         <v>8</v>
       </c>
       <c r="BA18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB18" t="n">
         <v>6</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -3760,43 +3827,43 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="L19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M19" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.77</v>
@@ -3817,37 +3884,37 @@
         <v>15.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>93</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3871,13 +3938,13 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU19" t="n">
         <v>24</v>
@@ -3895,19 +3962,19 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4068,13 +4135,13 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV20" t="n">
         <v>24</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>23</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4124,67 +4191,67 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
         <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
         <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T21" t="n">
         <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W21" t="n">
         <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y21" t="n">
         <v>5</v>
@@ -4193,16 +4260,16 @@
         <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4211,10 +4278,10 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,40 +4311,40 @@
         <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
         <v>21</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="n">
         <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.767</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,7 +4391,7 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.472</v>
@@ -4333,28 +4400,28 @@
         <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
         <v>0.347</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="R22" t="n">
         <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
         <v>18.3</v>
@@ -4366,7 +4433,7 @@
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
@@ -4375,16 +4442,16 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
         <v>102.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4408,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4432,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>17</v>
@@ -4447,16 +4514,16 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.644</v>
+        <v>0.636</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I23" t="n">
         <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M23" t="n">
         <v>26.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.649</v>
+        <v>0.648</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y23" t="n">
-        <v>4.2</v>
-      </c>
       <c r="Z23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>9</v>
@@ -4608,40 +4675,40 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4670,55 +4737,55 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L24" t="n">
         <v>5.6</v>
       </c>
       <c r="M24" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O24" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P24" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S24" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
@@ -4727,37 +4794,37 @@
         <v>10.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
         <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
@@ -4769,13 +4836,13 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN24" t="n">
         <v>7</v>
@@ -4787,16 +4854,16 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4811,7 +4878,7 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
         <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J25" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
         <v>19.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
         <v>15.7</v>
@@ -4894,16 +4961,16 @@
         <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
         <v>41.9</v>
       </c>
       <c r="U25" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
         <v>14.3</v>
@@ -4918,43 +4985,43 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4963,28 +5030,28 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4993,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5002,10 +5069,10 @@
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.477</v>
+        <v>0.465</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,46 +5119,46 @@
         <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
         <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P26" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
         <v>5.3</v>
@@ -5100,31 +5167,31 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5136,19 +5203,19 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,25 +5224,25 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5184,11 +5251,11 @@
         <v>9</v>
       </c>
       <c r="BB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC26" t="n">
         <v>13</v>
       </c>
-      <c r="BC26" t="n">
-        <v>10</v>
-      </c>
       <c r="BD26" t="n">
         <v>10</v>
       </c>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.341</v>
+        <v>0.326</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.424</v>
+        <v>0.421</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O27" t="n">
         <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S27" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="V27" t="n">
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5285,55 +5352,55 @@
         <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.5</v>
+        <v>-7.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5345,10 +5412,10 @@
         <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.721</v>
+        <v>0.725</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T28" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5491,10 +5558,10 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5512,19 +5579,19 @@
         <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5539,13 +5606,13 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
         <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.341</v>
+        <v>0.326</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J29" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5610,31 +5677,31 @@
         <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="P29" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.764</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5643,34 +5710,34 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>28</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5688,19 +5755,19 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
@@ -5712,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW29" t="n">
         <v>25</v>
@@ -5721,16 +5788,16 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>7</v>
@@ -5894,10 +5961,10 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5906,13 +5973,13 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233</v>
+        <v>0.238</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,25 +6029,25 @@
         <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L31" t="n">
         <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.72</v>
@@ -5992,37 +6059,37 @@
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U31" t="n">
         <v>18.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6043,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6052,13 +6119,13 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>18</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
@@ -6070,13 +6137,13 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
@@ -6085,16 +6152,16 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2011-12</t>
+          <t>2012-03-16</t>
         </is>
       </c>
     </row>
